--- a/5_evaluation/ground_truth.xlsx
+++ b/5_evaluation/ground_truth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Angel\AI GBB\rag_workshop\5_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2A8210-941A-4910-93DF-39F3BE02AA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EB4456-2FE6-45C2-87E2-73065322676A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{BFBDD009-0FE4-4672-BE8C-50BB5D9EFC9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>What does a Product Manager do?</t>
   </si>
@@ -90,13 +90,46 @@
 - Prescription Drugs: Subject to a copayment, varying by drug type. Generic drugs usually have lower copayments.
 - Mental Health and Substance Abuse Services: Subject to a copayment and deductible, varying by service type.</t>
   </si>
+  <si>
+    <t>How much is deductible?</t>
+  </si>
+  <si>
+    <t>The deductible for Northwind Health Plus is $2,000 per year.</t>
+  </si>
+  <si>
+    <t>The roles at Contoso Electronics include:
+Chief Executive Officer
+Chief Operating Officer
+Chief Financial Officer
+Chief Technology Officer
+Vice President of Sales
+Vice President of Marketing
+Vice President of Operations
+Vice President of Human Resources
+Vice President of Research and Development
+Vice President of Product Management
+Director of Sales
+Director of Marketing
+Director of Operations</t>
+  </si>
+  <si>
+    <t>What roles are there in Contoso Electronics?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -150,8 +183,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -490,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD56E94-83A1-40F7-9AC1-726F11D8D9AA}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,26 +545,42 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/5_evaluation/ground_truth.xlsx
+++ b/5_evaluation/ground_truth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Angel\AI GBB\rag_workshop\5_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EB4456-2FE6-45C2-87E2-73065322676A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1053C-3CF8-4C95-870B-5B72895097CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{BFBDD009-0FE4-4672-BE8C-50BB5D9EFC9C}"/>
   </bookViews>
@@ -97,23 +97,17 @@
     <t>The deductible for Northwind Health Plus is $2,000 per year.</t>
   </si>
   <si>
-    <t>The roles at Contoso Electronics include:
-Chief Executive Officer
-Chief Operating Officer
-Chief Financial Officer
-Chief Technology Officer
-Vice President of Sales
-Vice President of Marketing
-Vice President of Operations
-Vice President of Human Resources
-Vice President of Research and Development
-Vice President of Product Management
-Director of Sales
-Director of Marketing
-Director of Operations</t>
-  </si>
-  <si>
     <t>What roles are there in Contoso Electronics?</t>
+  </si>
+  <si>
+    <t>Contoso Electronics has the following roles:
+- Vice President of Research and Development
+- Vice President of Product Management
+- Director of Operations
+- Director of Human Resources
+- Director of Marketing
+- Sales Representative
+- Customer Service Representative</t>
   </si>
 </sst>
 </file>
@@ -172,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -184,9 +178,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -525,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD56E94-83A1-40F7-9AC1-726F11D8D9AA}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,16 +559,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="203" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
